--- a/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:24:12+00:00</t>
+    <t>2025-10-09T09:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:53:32+00:00</t>
+    <t>2025-10-13T09:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T09:38:26+00:00</t>
+    <t>2025-10-13T09:39:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/341-préparation-release-405/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T09:39:50+00:00</t>
+    <t>2025-10-13T12:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
